--- a/data/long_razon/P23_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_1-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-55,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 92,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -15,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 123,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 20,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 76,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,52; -10,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>103,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-42,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,51; 274,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,81; -2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 86,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 80,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 125,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 17,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>118,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 57,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 35,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,87; 200,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,45; 99,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 10,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 85,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,15; 159,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 20,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 96,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 5,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>133,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 106,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 34,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,34; 275,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 47,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,24; 121,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 27,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 42,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,88; 176,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 130,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 122,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 63,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 102,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 54,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,4; 100,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,39; 62,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 3,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_1-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.2662192091975465</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6091562059533756</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2803394311798921</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.105376924968223</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3025011896593013</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2723156527835262</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.3808764945184515</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2399715307828336</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2833123265102799</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.4453997221223546</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1386418025118244</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.07513923551300637</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.3312141673714917</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8139900748912205</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5076553565023502</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4946049358789854</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1997082352266409</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5634971320114878</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.6592625287473756</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6242415394624281</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1289344587550214</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.6378342492194112</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4821048663723436</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.4313622394735223</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.379783700456974</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.2238110601109705</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.085605647493371</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.348805886687911</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.253028887872392</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1878777180877229</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.1359386672486052</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.430952299931232</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.9358625454359691</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>-0.175721597897562</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3962676883006144</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4299260848841819</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>1.036810457969558</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.43826700314999</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1941071542989089</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1805680424505987</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1975810253920201</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2672100162126889</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.2741250440002732</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.06125275666170515</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.5977111362072428</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.1587481814864166</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.2347423454022163</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.1125413052652894</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.196996106959298</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6883120414405636</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6199044686317033</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6836025632882253</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2489055188561102</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1168664897391458</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.5557238526000088</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4505605513911647</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.1241929060577981</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4176112619839804</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.5078038692422421</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4596566801234556</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.419431507136282</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.05059568005474076</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.849416873770945</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.211458346467938</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8525755439802183</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8155121252511512</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1089714202308914</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.4827521657670111</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.369660569581696</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1227958287456696</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1762925700156076</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.4158500282978537</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.1006318276446695</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.04162190679054177</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1095549412982416</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2214637565021897</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.219711830607831</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1738350230933909</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.3541586249075331</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2296076704619498</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.6069966308893769</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.1157907057206806</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2382529293467209</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.01890791123307417</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.2347656285848536</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3202314143363135</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3859173978639225</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2382118172817571</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6534416363365347</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3653783353667522</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5538512351849928</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5007959141544696</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.2447195240729091</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2832008821202225</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3946235075342778</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2902365647710186</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.6443285895968267</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.3660492398128066</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.253816534216001</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.047780711083831</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.184057409399568</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.07263440909415254</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.1024000426777464</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.1681378609169889</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.042921006992329</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.08952345474713438</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.039668871818954</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.3250429784035306</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.3637048597462882</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2365902753343165</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.03024868801620288</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.02133322865617959</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8553312253139503</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.06859925102348573</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.01195201341480277</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1996925530959658</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.5792181233734789</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1502162644833668</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.008788815307544509</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.08934045746974152</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.06877446513838713</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4456204858813025</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3424923795071516</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3634706465153253</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3398619443550738</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2507894417180678</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.249476959756705</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2942159189322257</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.2217269157210676</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2784155012673258</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2104492678840001</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2320874695212491</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.911021173390953</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.02560106229948714</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4432054382451378</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6843408325680229</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.629981994228655</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2056842503429573</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3982047776124231</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.997363859393298</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.013014519713959</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.03342217937310816</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2762882149051082</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.4956530826701509</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.4992313153944991</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.0156075100708463</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1089838924439294</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.003538582836734588</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.323581363467812</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.01536551713610675</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.4707174906125735</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2698784000327681</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.7795080954500275</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.001195040046815527</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.1459541312208507</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.1398847619480334</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>0.04177796881307008</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2869734178723102</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4150847835136727</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4040910425536297</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.4638713029576105</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2836087252322</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.04268861383131189</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1393369907360274</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>0.3244770708155663</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2167352870907986</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.1357338613979405</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.1896913354845558</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.187661577851908</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3575011972737748</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.29897504163477</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.8252476326493378</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.71583466846734</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.3988190380041406</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.231993018324249</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.064224294619602</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>1.318554777256029</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.2922552119446763</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.5303371602079726</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.6524600722213399</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.09992583486621159</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.8752553259049407</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.2387178181787495</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.3501738675655977</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.4026961823151453</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.1404197364938339</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.201469245673686</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>1.164513478794936</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.1231406404596934</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.4181703372563398</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.2165505715821716</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.7971082431176876</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.5096133429175969</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2575825885541714</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3058189403528649</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.2329041581959183</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.1576446204205272</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2570541201229529</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.2602373624961384</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>0.151873421332344</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.2306982924011201</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.02883714842621318</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.15884148488713</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.1672647460021098</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.4038214549027709</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.998890918856909</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.184160380880712</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.747624163607378</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.254469860399857</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.8231054279345721</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.8945165042593194</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>3.188425490152609</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.6131534604957797</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.9551036486490718</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.8115050848822851</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.911903409591824</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.3046121713716985</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1498655435771009</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.02775375830162255</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.08600941336708251</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.6910858301147194</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.03618514842291626</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.08706063998650733</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1547417535621924</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.4768907826336217</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.09199171063970622</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.05922906811969603</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.1210593757652429</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.076953578339478</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2912710980570092</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2210620338482858</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1431821807276427</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4245029332273105</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1557900860885806</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.2293093237257662</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.06334086377325102</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.2869088021207452</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1829309848653953</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.1624684559339618</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.0505156941182151</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.5758270293541558</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.003964404829236138</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.195572076323005</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4013588624006679</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9684087871956939</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.1183158887457435</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.08266756978702935</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.4230150138904058</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.6757317159053029</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.01363445242249634</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.08364985777414245</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.3043368819616435</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
